--- a/Documentatie/RezultateExperimentale/W4W5_Outside_Room_Night_31_05.xlsx
+++ b/Documentatie/RezultateExperimentale/W4W5_Outside_Room_Night_31_05.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="105" windowWidth="14295" windowHeight="4635" activeTab="4"/>
+    <workbookView xWindow="480" yWindow="105" windowWidth="14295" windowHeight="4635" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="W4W2_Outside_Room_Night_31_05" sheetId="1" r:id="rId1"/>
@@ -3123,24 +3123,24 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="104592512"/>
-        <c:axId val="104594048"/>
+        <c:axId val="232382848"/>
+        <c:axId val="232385536"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="104592512"/>
+        <c:axId val="232382848"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="104594048"/>
+        <c:crossAx val="232385536"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="104594048"/>
+        <c:axId val="232385536"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="1500000"/>
@@ -3149,7 +3149,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="104592512"/>
+        <c:crossAx val="232382848"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3161,7 +3161,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000033" l="0.70000000000000029" r="0.70000000000000029" t="0.75000000000000033" header="0.30000000000000016" footer="0.30000000000000016"/>
+    <c:pageMargins b="0.75000000000000044" l="0.7000000000000004" r="0.7000000000000004" t="0.75000000000000044" header="0.30000000000000021" footer="0.30000000000000021"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -4166,24 +4166,24 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="104952576"/>
-        <c:axId val="104954112"/>
+        <c:axId val="180106368"/>
+        <c:axId val="180107904"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="104952576"/>
+        <c:axId val="180106368"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="104954112"/>
+        <c:crossAx val="180107904"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="104954112"/>
+        <c:axId val="180107904"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4191,7 +4191,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="104952576"/>
+        <c:crossAx val="180106368"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4203,7 +4203,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000022" l="0.70000000000000018" r="0.70000000000000018" t="0.75000000000000022" header="0.3000000000000001" footer="0.3000000000000001"/>
+    <c:pageMargins b="0.75000000000000033" l="0.70000000000000029" r="0.70000000000000029" t="0.75000000000000033" header="0.30000000000000016" footer="0.30000000000000016"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -5208,24 +5208,24 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="105138048"/>
-        <c:axId val="105139584"/>
+        <c:axId val="180144384"/>
+        <c:axId val="180150272"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="105138048"/>
+        <c:axId val="180144384"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="105139584"/>
+        <c:crossAx val="180150272"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="105139584"/>
+        <c:axId val="180150272"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="80"/>
@@ -5234,7 +5234,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="105138048"/>
+        <c:crossAx val="180144384"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5246,7 +5246,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000022" l="0.70000000000000018" r="0.70000000000000018" t="0.75000000000000022" header="0.3000000000000001" footer="0.3000000000000001"/>
+    <c:pageMargins b="0.75000000000000033" l="0.70000000000000029" r="0.70000000000000029" t="0.75000000000000033" header="0.30000000000000016" footer="0.30000000000000016"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -6251,24 +6251,24 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="105147392"/>
-        <c:axId val="105165568"/>
+        <c:axId val="180161920"/>
+        <c:axId val="180184192"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="105147392"/>
+        <c:axId val="180161920"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="105165568"/>
+        <c:crossAx val="180184192"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="105165568"/>
+        <c:axId val="180184192"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6276,7 +6276,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="105147392"/>
+        <c:crossAx val="180161920"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6288,7 +6288,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000022" l="0.70000000000000018" r="0.70000000000000018" t="0.75000000000000022" header="0.3000000000000001" footer="0.3000000000000001"/>
+    <c:pageMargins b="0.75000000000000033" l="0.70000000000000029" r="0.70000000000000029" t="0.75000000000000033" header="0.30000000000000016" footer="0.30000000000000016"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -7293,24 +7293,24 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="105197952"/>
-        <c:axId val="105199488"/>
+        <c:axId val="180200192"/>
+        <c:axId val="180201728"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="105197952"/>
+        <c:axId val="180200192"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="105199488"/>
+        <c:crossAx val="180201728"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="105199488"/>
+        <c:axId val="180201728"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7318,7 +7318,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="105197952"/>
+        <c:crossAx val="180200192"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -7330,7 +7330,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000022" l="0.70000000000000018" r="0.70000000000000018" t="0.75000000000000022" header="0.3000000000000001" footer="0.3000000000000001"/>
+    <c:pageMargins b="0.75000000000000033" l="0.70000000000000029" r="0.70000000000000029" t="0.75000000000000033" header="0.30000000000000016" footer="0.30000000000000016"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -9325,24 +9325,24 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="104634624"/>
-        <c:axId val="104648704"/>
+        <c:axId val="162286208"/>
+        <c:axId val="162304384"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="104634624"/>
+        <c:axId val="162286208"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="104648704"/>
+        <c:crossAx val="162304384"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="104648704"/>
+        <c:axId val="162304384"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9350,7 +9350,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="104634624"/>
+        <c:crossAx val="162286208"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -9362,7 +9362,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000033" l="0.70000000000000029" r="0.70000000000000029" t="0.75000000000000033" header="0.30000000000000016" footer="0.30000000000000016"/>
+    <c:pageMargins b="0.75000000000000044" l="0.7000000000000004" r="0.7000000000000004" t="0.75000000000000044" header="0.30000000000000021" footer="0.30000000000000021"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -11357,24 +11357,24 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="104660352"/>
-        <c:axId val="104744064"/>
+        <c:axId val="162312192"/>
+        <c:axId val="162313728"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="104660352"/>
+        <c:axId val="162312192"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="104744064"/>
+        <c:crossAx val="162313728"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="104744064"/>
+        <c:axId val="162313728"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11382,7 +11382,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="104660352"/>
+        <c:crossAx val="162312192"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -11394,7 +11394,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000033" l="0.70000000000000029" r="0.70000000000000029" t="0.75000000000000033" header="0.30000000000000016" footer="0.30000000000000016"/>
+    <c:pageMargins b="0.75000000000000044" l="0.7000000000000004" r="0.7000000000000004" t="0.75000000000000044" header="0.30000000000000021" footer="0.30000000000000021"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -13389,24 +13389,24 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="104788736"/>
-        <c:axId val="104790272"/>
+        <c:axId val="162329728"/>
+        <c:axId val="162331264"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="104788736"/>
+        <c:axId val="162329728"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="104790272"/>
+        <c:crossAx val="162331264"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="104790272"/>
+        <c:axId val="162331264"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -13414,7 +13414,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="104788736"/>
+        <c:crossAx val="162329728"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -13426,7 +13426,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000033" l="0.70000000000000029" r="0.70000000000000029" t="0.75000000000000033" header="0.30000000000000016" footer="0.30000000000000016"/>
+    <c:pageMargins b="0.75000000000000044" l="0.7000000000000004" r="0.7000000000000004" t="0.75000000000000044" header="0.30000000000000021" footer="0.30000000000000021"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -13436,7 +13436,9 @@
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:chart>
-    <c:title/>
+    <c:title>
+      <c:layout/>
+    </c:title>
     <c:plotArea>
       <c:layout/>
       <c:lineChart>
@@ -14467,24 +14469,24 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="104716544"/>
-        <c:axId val="104824832"/>
+        <c:axId val="166980224"/>
+        <c:axId val="168108416"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="104716544"/>
+        <c:axId val="166980224"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="104824832"/>
+        <c:crossAx val="168108416"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="104824832"/>
+        <c:axId val="168108416"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -14492,19 +14494,20 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="104716544"/>
+        <c:crossAx val="166980224"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
     </c:legend>
     <c:plotVisOnly val="1"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000033" l="0.70000000000000029" r="0.70000000000000029" t="0.75000000000000033" header="0.30000000000000016" footer="0.30000000000000016"/>
+    <c:pageMargins b="0.75000000000000044" l="0.7000000000000004" r="0.7000000000000004" t="0.75000000000000044" header="0.30000000000000021" footer="0.30000000000000021"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -14514,7 +14517,9 @@
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:chart>
-    <c:title/>
+    <c:title>
+      <c:layout/>
+    </c:title>
     <c:plotArea>
       <c:layout/>
       <c:lineChart>
@@ -15545,24 +15550,24 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="104832384"/>
-        <c:axId val="104854656"/>
+        <c:axId val="168128512"/>
+        <c:axId val="168130048"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="104832384"/>
+        <c:axId val="168128512"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="104854656"/>
+        <c:crossAx val="168130048"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="104854656"/>
+        <c:axId val="168130048"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -15570,19 +15575,20 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="104832384"/>
+        <c:crossAx val="168128512"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
     </c:legend>
     <c:plotVisOnly val="1"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
+    <c:pageMargins b="0.75000000000000022" l="0.70000000000000018" r="0.70000000000000018" t="0.75000000000000022" header="0.3000000000000001" footer="0.3000000000000001"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -15592,7 +15598,9 @@
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:chart>
-    <c:title/>
+    <c:title>
+      <c:layout/>
+    </c:title>
     <c:plotArea>
       <c:layout/>
       <c:lineChart>
@@ -16623,24 +16631,24 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="104891136"/>
-        <c:axId val="104892672"/>
+        <c:axId val="170333312"/>
+        <c:axId val="170334848"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="104891136"/>
+        <c:axId val="170333312"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="104892672"/>
+        <c:crossAx val="170334848"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="104892672"/>
+        <c:axId val="170334848"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -16648,19 +16656,20 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="104891136"/>
+        <c:crossAx val="170333312"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
     </c:legend>
     <c:plotVisOnly val="1"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
+    <c:pageMargins b="0.75000000000000022" l="0.70000000000000018" r="0.70000000000000018" t="0.75000000000000022" header="0.3000000000000001" footer="0.3000000000000001"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -17701,24 +17710,24 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="105006976"/>
-        <c:axId val="105008512"/>
+        <c:axId val="170436864"/>
+        <c:axId val="170479616"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="105006976"/>
+        <c:axId val="170436864"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="105008512"/>
+        <c:crossAx val="170479616"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="105008512"/>
+        <c:axId val="170479616"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -17726,7 +17735,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="105006976"/>
+        <c:crossAx val="170436864"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -17738,7 +17747,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
+    <c:pageMargins b="0.75000000000000022" l="0.70000000000000018" r="0.70000000000000018" t="0.75000000000000022" header="0.3000000000000001" footer="0.3000000000000001"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -18779,24 +18788,24 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="105036800"/>
-        <c:axId val="105042688"/>
+        <c:axId val="170540416"/>
+        <c:axId val="170554496"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="105036800"/>
+        <c:axId val="170540416"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="105042688"/>
+        <c:crossAx val="170554496"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="105042688"/>
+        <c:axId val="170554496"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -18804,7 +18813,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="105036800"/>
+        <c:crossAx val="170540416"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -18816,7 +18825,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
+    <c:pageMargins b="0.75000000000000022" l="0.70000000000000018" r="0.70000000000000018" t="0.75000000000000022" header="0.3000000000000001" footer="0.3000000000000001"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -50740,10 +50749,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O2"/>
+  <dimension ref="A1:O3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -50823,6 +50832,36 @@
       </c>
       <c r="J2">
         <v>5624535</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
+      <c r="C3">
+        <f>(((  ((G3*298)/1000000000) - 0.5) /350000)*1000000000)/6.11</f>
+        <v>171.64000841711481</v>
+      </c>
+      <c r="D3">
+        <f>(((1.6775 - ((H3*298)/1000000000))/350000)*1000000000)/0.01648</f>
+        <v>127.850208044379</v>
+      </c>
+      <c r="E3">
+        <f>(((  ((I3*298)/1000000000) - 0.5) /350000)*1000000000)/0.03722</f>
+        <v>150.92500191908886</v>
+      </c>
+      <c r="F3">
+        <f>(((1.6775 - ((J3*298)/1000000000))/350000)*1000000000)/0.06773</f>
+        <v>29.788445719350864</v>
+      </c>
+      <c r="G3">
+        <v>2909571</v>
+      </c>
+      <c r="H3">
+        <v>5626720</v>
+      </c>
+      <c r="I3">
+        <v>1684450</v>
+      </c>
+      <c r="J3">
+        <v>5626825</v>
       </c>
     </row>
   </sheetData>
@@ -50834,7 +50873,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:O2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="M15" sqref="M15"/>
     </sheetView>
   </sheetViews>

--- a/Documentatie/RezultateExperimentale/W4W5_Outside_Room_Night_31_05.xlsx
+++ b/Documentatie/RezultateExperimentale/W4W5_Outside_Room_Night_31_05.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="105" windowWidth="14295" windowHeight="4635" activeTab="3"/>
+    <workbookView xWindow="480" yWindow="105" windowWidth="14295" windowHeight="4635" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="W4W2_Outside_Room_Night_31_05" sheetId="1" r:id="rId1"/>
@@ -3123,24 +3123,24 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="232382848"/>
-        <c:axId val="232385536"/>
+        <c:axId val="117467392"/>
+        <c:axId val="117473280"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="232382848"/>
+        <c:axId val="117467392"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="232385536"/>
+        <c:crossAx val="117473280"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="232385536"/>
+        <c:axId val="117473280"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="1500000"/>
@@ -3149,7 +3149,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="232382848"/>
+        <c:crossAx val="117467392"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3161,7 +3161,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000044" l="0.7000000000000004" r="0.7000000000000004" t="0.75000000000000044" header="0.30000000000000021" footer="0.30000000000000021"/>
+    <c:pageMargins b="0.75000000000000056" l="0.70000000000000051" r="0.70000000000000051" t="0.75000000000000056" header="0.30000000000000027" footer="0.30000000000000027"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -4166,24 +4166,24 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="180106368"/>
-        <c:axId val="180107904"/>
+        <c:axId val="118609792"/>
+        <c:axId val="118611328"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="180106368"/>
+        <c:axId val="118609792"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="180107904"/>
+        <c:crossAx val="118611328"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="180107904"/>
+        <c:axId val="118611328"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4191,7 +4191,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="180106368"/>
+        <c:crossAx val="118609792"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4203,7 +4203,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000033" l="0.70000000000000029" r="0.70000000000000029" t="0.75000000000000033" header="0.30000000000000016" footer="0.30000000000000016"/>
+    <c:pageMargins b="0.75000000000000044" l="0.7000000000000004" r="0.7000000000000004" t="0.75000000000000044" header="0.30000000000000021" footer="0.30000000000000021"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -5208,24 +5208,24 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="180144384"/>
-        <c:axId val="180150272"/>
+        <c:axId val="118492160"/>
+        <c:axId val="118526720"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="180144384"/>
+        <c:axId val="118492160"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="180150272"/>
+        <c:crossAx val="118526720"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="180150272"/>
+        <c:axId val="118526720"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="80"/>
@@ -5234,7 +5234,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="180144384"/>
+        <c:crossAx val="118492160"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5246,7 +5246,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000033" l="0.70000000000000029" r="0.70000000000000029" t="0.75000000000000033" header="0.30000000000000016" footer="0.30000000000000016"/>
+    <c:pageMargins b="0.75000000000000044" l="0.7000000000000004" r="0.7000000000000004" t="0.75000000000000044" header="0.30000000000000021" footer="0.30000000000000021"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -6251,24 +6251,24 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="180161920"/>
-        <c:axId val="180184192"/>
+        <c:axId val="118698368"/>
+        <c:axId val="118699904"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="180161920"/>
+        <c:axId val="118698368"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="180184192"/>
+        <c:crossAx val="118699904"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="180184192"/>
+        <c:axId val="118699904"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6276,7 +6276,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="180161920"/>
+        <c:crossAx val="118698368"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6288,7 +6288,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000033" l="0.70000000000000029" r="0.70000000000000029" t="0.75000000000000033" header="0.30000000000000016" footer="0.30000000000000016"/>
+    <c:pageMargins b="0.75000000000000044" l="0.7000000000000004" r="0.7000000000000004" t="0.75000000000000044" header="0.30000000000000021" footer="0.30000000000000021"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -6298,7 +6298,9 @@
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:chart>
-    <c:title/>
+    <c:title>
+      <c:layout/>
+    </c:title>
     <c:plotArea>
       <c:layout/>
       <c:lineChart>
@@ -7293,24 +7295,24 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="180200192"/>
-        <c:axId val="180201728"/>
+        <c:axId val="118740480"/>
+        <c:axId val="118742016"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="180200192"/>
+        <c:axId val="118740480"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="180201728"/>
+        <c:crossAx val="118742016"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="180201728"/>
+        <c:axId val="118742016"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7318,19 +7320,20 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="180200192"/>
+        <c:crossAx val="118740480"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
     </c:legend>
     <c:plotVisOnly val="1"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000033" l="0.70000000000000029" r="0.70000000000000029" t="0.75000000000000033" header="0.30000000000000016" footer="0.30000000000000016"/>
+    <c:pageMargins b="0.75000000000000044" l="0.7000000000000004" r="0.7000000000000004" t="0.75000000000000044" header="0.30000000000000021" footer="0.30000000000000021"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -9325,24 +9328,24 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="162286208"/>
-        <c:axId val="162304384"/>
+        <c:axId val="118108160"/>
+        <c:axId val="118109696"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="162286208"/>
+        <c:axId val="118108160"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="162304384"/>
+        <c:crossAx val="118109696"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="162304384"/>
+        <c:axId val="118109696"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9350,7 +9353,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="162286208"/>
+        <c:crossAx val="118108160"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -9362,7 +9365,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000044" l="0.7000000000000004" r="0.7000000000000004" t="0.75000000000000044" header="0.30000000000000021" footer="0.30000000000000021"/>
+    <c:pageMargins b="0.75000000000000056" l="0.70000000000000051" r="0.70000000000000051" t="0.75000000000000056" header="0.30000000000000027" footer="0.30000000000000027"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -11357,24 +11360,24 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="162312192"/>
-        <c:axId val="162313728"/>
+        <c:axId val="118146176"/>
+        <c:axId val="118147712"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="162312192"/>
+        <c:axId val="118146176"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="162313728"/>
+        <c:crossAx val="118147712"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="162313728"/>
+        <c:axId val="118147712"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11382,7 +11385,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="162312192"/>
+        <c:crossAx val="118146176"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -11394,7 +11397,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000044" l="0.7000000000000004" r="0.7000000000000004" t="0.75000000000000044" header="0.30000000000000021" footer="0.30000000000000021"/>
+    <c:pageMargins b="0.75000000000000056" l="0.70000000000000051" r="0.70000000000000051" t="0.75000000000000056" header="0.30000000000000027" footer="0.30000000000000027"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -13389,24 +13392,24 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="162329728"/>
-        <c:axId val="162331264"/>
+        <c:axId val="117573888"/>
+        <c:axId val="117620736"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="162329728"/>
+        <c:axId val="117573888"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="162331264"/>
+        <c:crossAx val="117620736"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="162331264"/>
+        <c:axId val="117620736"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -13414,7 +13417,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="162329728"/>
+        <c:crossAx val="117573888"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -13426,7 +13429,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000044" l="0.7000000000000004" r="0.7000000000000004" t="0.75000000000000044" header="0.30000000000000021" footer="0.30000000000000021"/>
+    <c:pageMargins b="0.75000000000000056" l="0.70000000000000051" r="0.70000000000000051" t="0.75000000000000056" header="0.30000000000000027" footer="0.30000000000000027"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -13436,9 +13439,7 @@
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:chart>
-    <c:title>
-      <c:layout/>
-    </c:title>
+    <c:title/>
     <c:plotArea>
       <c:layout/>
       <c:lineChart>
@@ -14469,24 +14470,24 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="166980224"/>
-        <c:axId val="168108416"/>
+        <c:axId val="118255616"/>
+        <c:axId val="118257152"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="166980224"/>
+        <c:axId val="118255616"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="168108416"/>
+        <c:crossAx val="118257152"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="168108416"/>
+        <c:axId val="118257152"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -14494,20 +14495,19 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="166980224"/>
+        <c:crossAx val="118255616"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
     </c:legend>
     <c:plotVisOnly val="1"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000044" l="0.7000000000000004" r="0.7000000000000004" t="0.75000000000000044" header="0.30000000000000021" footer="0.30000000000000021"/>
+    <c:pageMargins b="0.75000000000000056" l="0.70000000000000051" r="0.70000000000000051" t="0.75000000000000056" header="0.30000000000000027" footer="0.30000000000000027"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -14517,9 +14517,7 @@
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:chart>
-    <c:title>
-      <c:layout/>
-    </c:title>
+    <c:title/>
     <c:plotArea>
       <c:layout/>
       <c:lineChart>
@@ -15550,24 +15548,24 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="168128512"/>
-        <c:axId val="168130048"/>
+        <c:axId val="118363264"/>
+        <c:axId val="118364800"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="168128512"/>
+        <c:axId val="118363264"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="168130048"/>
+        <c:crossAx val="118364800"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="168130048"/>
+        <c:axId val="118364800"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -15575,20 +15573,19 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="168128512"/>
+        <c:crossAx val="118363264"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
     </c:legend>
     <c:plotVisOnly val="1"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000022" l="0.70000000000000018" r="0.70000000000000018" t="0.75000000000000022" header="0.3000000000000001" footer="0.3000000000000001"/>
+    <c:pageMargins b="0.75000000000000033" l="0.70000000000000029" r="0.70000000000000029" t="0.75000000000000033" header="0.30000000000000016" footer="0.30000000000000016"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -15598,9 +15595,7 @@
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:chart>
-    <c:title>
-      <c:layout/>
-    </c:title>
+    <c:title/>
     <c:plotArea>
       <c:layout/>
       <c:lineChart>
@@ -16631,24 +16626,24 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="170333312"/>
-        <c:axId val="170334848"/>
+        <c:axId val="118380800"/>
+        <c:axId val="118403072"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="170333312"/>
+        <c:axId val="118380800"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="170334848"/>
+        <c:crossAx val="118403072"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="170334848"/>
+        <c:axId val="118403072"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -16656,20 +16651,19 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="170333312"/>
+        <c:crossAx val="118380800"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
     </c:legend>
     <c:plotVisOnly val="1"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000022" l="0.70000000000000018" r="0.70000000000000018" t="0.75000000000000022" header="0.3000000000000001" footer="0.3000000000000001"/>
+    <c:pageMargins b="0.75000000000000033" l="0.70000000000000029" r="0.70000000000000029" t="0.75000000000000033" header="0.30000000000000016" footer="0.30000000000000016"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -17710,24 +17704,24 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="170436864"/>
-        <c:axId val="170479616"/>
+        <c:axId val="118422528"/>
+        <c:axId val="118297344"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="170436864"/>
+        <c:axId val="118422528"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="170479616"/>
+        <c:crossAx val="118297344"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="170479616"/>
+        <c:axId val="118297344"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -17735,7 +17729,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="170436864"/>
+        <c:crossAx val="118422528"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -17747,7 +17741,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000022" l="0.70000000000000018" r="0.70000000000000018" t="0.75000000000000022" header="0.3000000000000001" footer="0.3000000000000001"/>
+    <c:pageMargins b="0.75000000000000033" l="0.70000000000000029" r="0.70000000000000029" t="0.75000000000000033" header="0.30000000000000016" footer="0.30000000000000016"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -18788,24 +18782,24 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="170540416"/>
-        <c:axId val="170554496"/>
+        <c:axId val="118337920"/>
+        <c:axId val="118339456"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="170540416"/>
+        <c:axId val="118337920"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="170554496"/>
+        <c:crossAx val="118339456"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="170554496"/>
+        <c:axId val="118339456"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -18813,7 +18807,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="170540416"/>
+        <c:crossAx val="118337920"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -18825,7 +18819,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000022" l="0.70000000000000018" r="0.70000000000000018" t="0.75000000000000022" header="0.3000000000000001" footer="0.3000000000000001"/>
+    <c:pageMargins b="0.75000000000000033" l="0.70000000000000029" r="0.70000000000000029" t="0.75000000000000033" header="0.30000000000000016" footer="0.30000000000000016"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -43209,10 +43203,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O160"/>
+  <dimension ref="A1:O163"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B109" sqref="B109"/>
+    <sheetView tabSelected="1" topLeftCell="A124" workbookViewId="0">
+      <selection activeCell="B68" sqref="B68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -50741,6 +50735,12 @@
         <v>17</v>
       </c>
     </row>
+    <row r="163" spans="6:6">
+      <c r="F163">
+        <f>AVERAGE(F2:F102)</f>
+        <v>30.514851485148515</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -50751,7 +50751,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:O3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
